--- a/biology/Médecine/Olufunmilayo_Olopade/Olufunmilayo_Olopade.xlsx
+++ b/biology/Médecine/Olufunmilayo_Olopade/Olufunmilayo_Olopade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olufunmilayo I. Olopade, née en 1957, est une oncologue et généticienne américaine d'origine nigériane. Elle enseigne la médecine et la génétique et dirige ses recherches à l'Université de Chicago.
 </t>
@@ -513,13 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière
-Elle a fait ses études de médecine à l'Université d'Ibadan et est devenue docteur en médecine en 1980. Elle a travaillé à l’hôpital de la marine nigériane à Lagos. En 1986, elle a effectué un stage d'interne au Cook County Hospital, à Chicago. Elle a effectué ses recherches postdoctorales en hématologie et en oncologie entre 1987 et 1991 à l'Université de Chicago où elle enseigne depuis 1991.
-Elle est connue pour ses recherches cliniques sur les risques, l'hérédité et les préventions du cancer du sein[1].
-Elle a  notamment travaillé sur le rôle des mutations des gènes BRCA1 et BRCA2 dans l'apparition du cancer du sein chez des femmes d'ascendance africaine[2].
-Le 24 février 2011, elle est nommée par le président Obama au  National Cancer Advisory Board (Conseil consultatif national sur le cancer)[3],[4].
-Vie privée
-Elle est mariée au médecin Christopher Sola Olopade, ils ont deux enfants, un fils et une fille[5] 
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a fait ses études de médecine à l'Université d'Ibadan et est devenue docteur en médecine en 1980. Elle a travaillé à l’hôpital de la marine nigériane à Lagos. En 1986, elle a effectué un stage d'interne au Cook County Hospital, à Chicago. Elle a effectué ses recherches postdoctorales en hématologie et en oncologie entre 1987 et 1991 à l'Université de Chicago où elle enseigne depuis 1991.
+Elle est connue pour ses recherches cliniques sur les risques, l'hérédité et les préventions du cancer du sein.
+Elle a  notamment travaillé sur le rôle des mutations des gènes BRCA1 et BRCA2 dans l'apparition du cancer du sein chez des femmes d'ascendance africaine.
+Le 24 février 2011, elle est nommée par le président Obama au  National Cancer Advisory Board (Conseil consultatif national sur le cancer),.
 </t>
         </is>
       </c>
@@ -545,21 +560,60 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est mariée au médecin Christopher Sola Olopade, ils ont deux enfants, un fils et une fille 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olufunmilayo_Olopade</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olufunmilayo_Olopade</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Prix et distinctions (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle est membre de plusieurs associations scientifiques : American Academy of Arts and Sciences et l'American Philosophical Society[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elle est membre de plusieurs associations scientifiques : American Academy of Arts and Sciences et l'American Philosophical Society
 1978 : Lauréate du Nigerian Medical Association Award pour ses travaux en pédiatrie
 1980 : Lauréate du College of Medicine Faculty Prize, décerné par l'université d'Ibadan
 1980 : Récipiendaire de la  Sir Samuel Manuwa Gold Medal, décernée par l'université d'Ibadan, pour ses travaux cliniques.
-1991 : Lauréate du Young Investigator Award, décerné par l'American Society of Clinical Oncology [7].
-1992 : Lauréate du Scholar Award, décerné par la James S. McDonnell Foundation (en)[8].
+1991 : Lauréate du Young Investigator Award, décerné par l'American Society of Clinical Oncology .
+1992 : Lauréate du Scholar Award, décerné par la James S. McDonnell Foundation (en).
 2003 : Lauréate du Phenomenal Woman Award,
-2006 : Lauréate du prix Distinguished Service Professors décerné par l'université de Chicago[9].
-2005 : Boursière de la fondation MacArthur[10],[11].
-2017 : Récipiendaire de la Mendel Medal, décernée par l'université Villanova[12].</t>
+2006 : Lauréate du prix Distinguished Service Professors décerné par l'université de Chicago.
+2005 : Boursière de la fondation MacArthur,.
+2017 : Récipiendaire de la Mendel Medal, décernée par l'université Villanova.</t>
         </is>
       </c>
     </row>
